--- a/library/Library_J.PLAGGENBERG_08.30.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_08.30.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB7974-0156-8946-827E-E562ED8B308B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF06E7-0D81-6940-9220-711D307AA280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20240" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,20 +189,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,7 +472,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/library/Library_J.PLAGGENBERG_08.30.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_08.30.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420_0.5X</t>
+    <t xml:space="preserve">E7420L_0.5X</t>
   </si>
   <si>
     <t xml:space="preserve">ACAGATA</t>
@@ -330,7 +330,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L33"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,7 +424,8 @@
       <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -462,7 +463,8 @@
       <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -500,7 +502,8 @@
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -538,7 +541,8 @@
       <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -576,7 +580,8 @@
       <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -614,7 +619,8 @@
       <c r="K7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -652,7 +658,8 @@
       <c r="K8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -690,7 +697,8 @@
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -728,7 +736,8 @@
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -766,7 +775,8 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -804,7 +814,8 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -842,7 +853,8 @@
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -880,7 +892,8 @@
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -918,7 +931,8 @@
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -956,7 +970,8 @@
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -994,7 +1009,8 @@
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1048,8 @@
       <c r="K18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1070,7 +1087,8 @@
       <c r="K19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1108,7 +1126,8 @@
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1146,7 +1165,8 @@
       <c r="K21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1204,8 @@
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1222,7 +1243,8 @@
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1260,7 +1282,8 @@
       <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1298,7 +1321,8 @@
       <c r="K25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1336,7 +1360,8 @@
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1399,8 @@
       <c r="K27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1412,7 +1438,8 @@
       <c r="K28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1450,7 +1477,8 @@
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1488,7 +1516,8 @@
       <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="b">
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1555,8 @@
       <c r="K31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="b">
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1564,7 +1594,8 @@
       <c r="K32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="b">
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1633,8 @@
       <c r="K33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="b">
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
